--- a/Greyform/Python_Application/exporteddatassss(draft).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(draft).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3377D-9E35-41E2-A005-03A5725F87F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="Stage 3" sheetId="3" r:id="rId3"/>
     <sheet name="Obstacles" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="303">
   <si>
     <t>Marking type</t>
   </si>
@@ -517,9 +523,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
@@ -782,12 +785,6 @@
   </si>
   <si>
     <t>TMP7S2h2:TMP7S2h2:1359072</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>Fitting</t>
@@ -940,8 +937,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,13 +1001,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1048,7 +1053,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1082,6 +1087,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1116,9 +1122,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1291,14 +1298,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>217</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1380,7 +1387,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>218</v>
       </c>
@@ -1406,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1418,7 +1425,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>90</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1459,7 +1466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>91</v>
       </c>
@@ -1485,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1500,7 +1507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>136</v>
       </c>
@@ -1526,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1538,7 +1545,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>131</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1576,7 +1583,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>98</v>
       </c>
@@ -1602,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1617,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>104</v>
       </c>
@@ -1643,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1658,7 +1665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>107</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1696,7 +1703,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>108</v>
       </c>
@@ -1722,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1734,7 +1741,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>109</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1772,7 +1779,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>219</v>
       </c>
@@ -1798,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1810,7 +1817,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>186</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1848,7 +1855,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>185</v>
       </c>
@@ -1874,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1886,7 +1893,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>184</v>
       </c>
@@ -1912,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1924,7 +1931,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>183</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1962,7 +1969,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>182</v>
       </c>
@@ -1988,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2000,7 +2007,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>177</v>
       </c>
@@ -2026,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2038,7 +2045,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>176</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2076,7 +2083,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>175</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2114,7 +2121,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>174</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2152,7 +2159,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>173</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2190,7 +2197,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>172</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2228,7 +2235,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>171</v>
       </c>
@@ -2254,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2266,7 +2273,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>170</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2304,7 +2311,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>168</v>
       </c>
@@ -2330,7 +2337,7 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2342,7 +2349,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>167</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2380,7 +2387,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>166</v>
       </c>
@@ -2406,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2418,7 +2425,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>165</v>
       </c>
@@ -2444,7 +2451,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2456,7 +2463,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>164</v>
       </c>
@@ -2482,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2494,7 +2501,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>163</v>
       </c>
@@ -2520,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2532,7 +2539,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>88</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2570,7 +2577,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>154</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2608,7 +2615,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>153</v>
       </c>
@@ -2634,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2646,7 +2653,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>187</v>
       </c>
@@ -2672,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2684,7 +2691,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>169</v>
       </c>
@@ -2710,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2722,7 +2729,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>87</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2763,7 +2770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -2789,7 +2796,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2804,7 +2811,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>85</v>
       </c>
@@ -2830,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2845,7 +2852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>57</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2883,7 +2890,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>56</v>
       </c>
@@ -2909,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2924,7 +2931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>55</v>
       </c>
@@ -2950,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2965,7 +2972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>50</v>
       </c>
@@ -2991,7 +2998,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3006,7 +3013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>48</v>
       </c>
@@ -3032,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3044,7 +3051,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3085,7 +3092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>86</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3123,7 +3130,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3164,7 +3171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42</v>
       </c>
@@ -3190,7 +3197,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3205,7 +3212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40</v>
       </c>
@@ -3231,7 +3238,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3246,7 +3253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>26</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3284,7 +3291,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -3310,7 +3317,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3322,7 +3329,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>65</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3360,7 +3367,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>22</v>
       </c>
@@ -3386,7 +3393,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3398,10 +3405,10 @@
         <v>2705</v>
       </c>
       <c r="O54">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>20</v>
       </c>
@@ -3427,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -3442,7 +3449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>19</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -3483,7 +3490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>18</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3521,10 +3528,10 @@
         <v>2705</v>
       </c>
       <c r="O57">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>17</v>
       </c>
@@ -3550,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3562,10 +3569,10 @@
         <v>2705</v>
       </c>
       <c r="O58">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>16</v>
       </c>
@@ -3591,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3603,7 +3610,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>15</v>
       </c>
@@ -3629,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3644,7 +3651,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>14</v>
       </c>
@@ -3670,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3682,7 +3689,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>13</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3723,7 +3730,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3764,7 +3771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -3790,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3805,7 +3812,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3843,7 +3850,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>21</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3884,7 +3891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3922,7 +3929,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3960,7 +3967,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>79</v>
       </c>
@@ -3986,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3998,7 +4005,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>78</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -4039,7 +4046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>81</v>
       </c>
@@ -4065,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -4080,7 +4087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>76</v>
       </c>
@@ -4106,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -4121,7 +4128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>75</v>
       </c>
@@ -4147,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -4159,7 +4166,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -4185,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -4197,7 +4204,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -4238,7 +4245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>71</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4276,7 +4283,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>83</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4314,7 +4321,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>82</v>
       </c>
@@ -4340,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4352,7 +4359,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>70</v>
       </c>
@@ -4378,7 +4385,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -4393,7 +4400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>220</v>
       </c>
@@ -4419,7 +4426,7 @@
         <v>6</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -4431,7 +4438,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>23</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -4472,7 +4479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>24</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>6</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -4513,7 +4520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>202</v>
       </c>
@@ -4539,7 +4546,7 @@
         <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -4551,7 +4558,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>203</v>
       </c>
@@ -4577,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="I84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -4589,7 +4596,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>204</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -4627,7 +4634,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>205</v>
       </c>
@@ -4653,7 +4660,7 @@
         <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -4665,7 +4672,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>206</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>6</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -4703,7 +4710,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>29</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -4744,7 +4751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>11</v>
       </c>
@@ -4770,7 +4777,7 @@
         <v>6</v>
       </c>
       <c r="I89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -4782,7 +4789,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>31</v>
       </c>
@@ -4808,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="I90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -4820,7 +4827,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>221</v>
       </c>
@@ -4846,7 +4853,7 @@
         <v>6</v>
       </c>
       <c r="I91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -4858,7 +4865,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>5</v>
       </c>
@@ -4884,7 +4891,7 @@
         <v>6</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -4899,7 +4906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>53</v>
       </c>
@@ -4925,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -4937,7 +4944,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -4963,7 +4970,7 @@
         <v>6</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -4978,7 +4985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>51</v>
       </c>
@@ -5004,7 +5011,7 @@
         <v>6</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5019,7 +5026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>130</v>
       </c>
@@ -5045,7 +5052,7 @@
         <v>6</v>
       </c>
       <c r="I96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5057,7 +5064,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>49</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -5098,7 +5105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>8</v>
       </c>
@@ -5124,7 +5131,7 @@
         <v>6</v>
       </c>
       <c r="I98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5139,7 +5146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>68</v>
       </c>
@@ -5165,7 +5172,7 @@
         <v>6</v>
       </c>
       <c r="I99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5180,7 +5187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>7</v>
       </c>
@@ -5206,7 +5213,7 @@
         <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -5218,7 +5225,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>10</v>
       </c>
@@ -5244,7 +5251,7 @@
         <v>6</v>
       </c>
       <c r="I101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -5259,7 +5266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>32</v>
       </c>
@@ -5285,7 +5292,7 @@
         <v>6</v>
       </c>
       <c r="I102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -5297,7 +5304,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>33</v>
       </c>
@@ -5323,7 +5330,7 @@
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -5338,7 +5345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>9</v>
       </c>
@@ -5364,7 +5371,7 @@
         <v>6</v>
       </c>
       <c r="I104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -5376,7 +5383,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>35</v>
       </c>
@@ -5402,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5417,7 +5424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>36</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -5455,7 +5462,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>34</v>
       </c>
@@ -5481,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="I107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -5496,7 +5503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>39</v>
       </c>
@@ -5522,7 +5529,7 @@
         <v>6</v>
       </c>
       <c r="I108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5534,7 +5541,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>38</v>
       </c>
@@ -5560,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="I109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -5575,7 +5582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>37</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -5616,7 +5623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>222</v>
       </c>
@@ -5642,7 +5649,7 @@
         <v>6</v>
       </c>
       <c r="I111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -5654,7 +5661,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>207</v>
       </c>
@@ -5680,7 +5687,7 @@
         <v>6</v>
       </c>
       <c r="I112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -5692,7 +5699,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>215</v>
       </c>
@@ -5718,7 +5725,7 @@
         <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -5730,7 +5737,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>97</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>6</v>
       </c>
       <c r="I114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -5768,7 +5775,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>96</v>
       </c>
@@ -5794,7 +5801,7 @@
         <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -5806,7 +5813,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>95</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -5844,7 +5851,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>94</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>6</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -5885,7 +5892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>93</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -5923,7 +5930,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>92</v>
       </c>
@@ -5949,7 +5956,7 @@
         <v>6</v>
       </c>
       <c r="I119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -5964,7 +5971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>89</v>
       </c>
@@ -5990,7 +5997,7 @@
         <v>6</v>
       </c>
       <c r="I120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -6002,7 +6009,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>77</v>
       </c>
@@ -6028,7 +6035,7 @@
         <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -6040,7 +6047,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>69</v>
       </c>
@@ -6066,7 +6073,7 @@
         <v>6</v>
       </c>
       <c r="I122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -6078,7 +6085,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>66</v>
       </c>
@@ -6104,7 +6111,7 @@
         <v>6</v>
       </c>
       <c r="I123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -6119,7 +6126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>64</v>
       </c>
@@ -6145,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -6160,7 +6167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>63</v>
       </c>
@@ -6186,7 +6193,7 @@
         <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -6198,7 +6205,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>62</v>
       </c>
@@ -6224,7 +6231,7 @@
         <v>6</v>
       </c>
       <c r="I126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -6239,7 +6246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>61</v>
       </c>
@@ -6265,7 +6272,7 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -6277,7 +6284,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>60</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -6318,7 +6325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>59</v>
       </c>
@@ -6344,7 +6351,7 @@
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -6359,7 +6366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>52</v>
       </c>
@@ -6385,7 +6392,7 @@
         <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -6397,7 +6404,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>46</v>
       </c>
@@ -6423,7 +6430,7 @@
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -6435,7 +6442,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45</v>
       </c>
@@ -6461,7 +6468,7 @@
         <v>6</v>
       </c>
       <c r="I132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -6473,7 +6480,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>41</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -6514,7 +6521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>30</v>
       </c>
@@ -6540,7 +6547,7 @@
         <v>6</v>
       </c>
       <c r="I134" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -6552,7 +6559,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>28</v>
       </c>
@@ -6578,7 +6585,7 @@
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J135">
         <v>1</v>
@@ -6593,7 +6600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>27</v>
       </c>
@@ -6619,7 +6626,7 @@
         <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -6634,7 +6641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>100</v>
       </c>
@@ -6660,7 +6667,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -6675,7 +6682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>223</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>6</v>
       </c>
       <c r="I138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -6713,7 +6720,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>101</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>6</v>
       </c>
       <c r="I139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -6751,7 +6758,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>214</v>
       </c>
@@ -6777,7 +6784,7 @@
         <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J140">
         <v>1</v>
@@ -6789,7 +6796,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>213</v>
       </c>
@@ -6815,7 +6822,7 @@
         <v>6</v>
       </c>
       <c r="I141" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -6827,7 +6834,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>212</v>
       </c>
@@ -6853,7 +6860,7 @@
         <v>6</v>
       </c>
       <c r="I142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -6865,7 +6872,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>211</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -6903,7 +6910,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>210</v>
       </c>
@@ -6929,7 +6936,7 @@
         <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J144">
         <v>1</v>
@@ -6941,7 +6948,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>209</v>
       </c>
@@ -6967,7 +6974,7 @@
         <v>6</v>
       </c>
       <c r="I145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J145">
         <v>1</v>
@@ -6979,7 +6986,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>208</v>
       </c>
@@ -7005,7 +7012,7 @@
         <v>6</v>
       </c>
       <c r="I146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J146">
         <v>1</v>
@@ -7017,7 +7024,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>181</v>
       </c>
@@ -7043,7 +7050,7 @@
         <v>6</v>
       </c>
       <c r="I147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J147">
         <v>1</v>
@@ -7055,7 +7062,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>180</v>
       </c>
@@ -7081,7 +7088,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>1</v>
@@ -7093,7 +7100,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>179</v>
       </c>
@@ -7119,7 +7126,7 @@
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -7131,7 +7138,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>178</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>6</v>
       </c>
       <c r="I150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -7169,7 +7176,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>102</v>
       </c>
@@ -7195,7 +7202,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J151">
         <v>1</v>
@@ -7213,14 +7220,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7264,15 +7276,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>228</v>
       </c>
       <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
       </c>
       <c r="D2">
         <v>2375</v>
@@ -7290,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -7302,15 +7314,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -7328,7 +7340,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -7340,15 +7352,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4">
         <v>2375</v>
@@ -7366,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -7378,15 +7390,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5">
         <v>1905</v>
@@ -7404,7 +7416,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -7416,15 +7428,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6">
         <v>1910</v>
@@ -7442,7 +7454,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -7454,15 +7466,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7">
         <v>600</v>
@@ -7480,7 +7492,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -7492,15 +7504,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -7518,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -7530,15 +7542,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9">
         <v>1425</v>
@@ -7556,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -7568,15 +7580,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10">
         <v>2375</v>
@@ -7594,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -7606,15 +7618,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11">
         <v>1425</v>
@@ -7632,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -7644,15 +7656,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12">
         <v>120</v>
@@ -7670,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -7682,15 +7694,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -7708,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -7720,15 +7732,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14">
         <v>225</v>
@@ -7746,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -7758,15 +7770,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15">
         <v>825</v>
@@ -7784,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -7796,15 +7808,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16">
         <v>2375</v>
@@ -7822,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -7834,15 +7846,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17">
         <v>1425</v>
@@ -7860,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -7872,15 +7884,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18">
         <v>120</v>
@@ -7898,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -7910,15 +7922,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19">
         <v>1425</v>
@@ -7936,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -7948,15 +7960,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -7974,7 +7986,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -7986,15 +7998,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21">
         <v>50</v>
@@ -8012,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -8024,15 +8036,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -8050,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -8062,15 +8074,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>246</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23">
         <v>50</v>
@@ -8088,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -8100,15 +8112,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>243</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24">
         <v>50</v>
@@ -8126,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -8138,15 +8150,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -8164,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -8176,15 +8188,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26">
         <v>50</v>
@@ -8202,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -8214,15 +8226,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27">
         <v>50</v>
@@ -8240,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -8252,15 +8264,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28">
         <v>50</v>
@@ -8278,7 +8290,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -8290,15 +8302,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29">
         <v>50</v>
@@ -8316,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -8328,15 +8340,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>264</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30">
         <v>1420</v>
@@ -8354,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -8366,15 +8378,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>263</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31">
         <v>820</v>
@@ -8392,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -8404,15 +8416,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32">
         <v>1880</v>
@@ -8430,7 +8442,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -8442,15 +8454,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33">
         <v>70</v>
@@ -8468,7 +8480,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -8480,15 +8492,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>70</v>
@@ -8506,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -8518,15 +8530,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35">
         <v>220</v>
@@ -8544,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -8556,15 +8568,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36">
         <v>1782</v>
@@ -8582,7 +8594,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -8594,15 +8606,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37">
         <v>1915</v>
@@ -8620,7 +8632,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -8632,15 +8644,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <v>1890</v>
@@ -8658,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -8670,15 +8682,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39">
         <v>1890</v>
@@ -8696,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -8708,15 +8720,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>253</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40">
         <v>1890</v>
@@ -8734,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -8746,15 +8758,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41">
         <v>1890</v>
@@ -8772,7 +8784,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -8784,15 +8796,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42">
         <v>1940</v>
@@ -8810,7 +8822,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -8822,15 +8834,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>254</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43">
         <v>1890</v>
@@ -8848,7 +8860,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -8860,15 +8872,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>259</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44">
         <v>2375</v>
@@ -8886,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -8898,15 +8910,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45">
         <v>2375</v>
@@ -8924,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -8936,15 +8948,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>257</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46">
         <v>2375</v>
@@ -8962,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -8974,15 +8986,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>260</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47">
         <v>2375</v>
@@ -9000,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -9012,15 +9024,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48">
         <v>2840</v>
@@ -9038,7 +9050,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -9050,15 +9062,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49">
         <v>1326</v>
@@ -9076,7 +9088,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -9088,15 +9100,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50">
         <v>1890</v>
@@ -9114,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -9126,15 +9138,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>250</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51">
         <v>2850</v>
@@ -9152,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -9164,15 +9176,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52">
         <v>2850</v>
@@ -9190,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -9202,15 +9214,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>248</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53">
         <v>2850</v>
@@ -9228,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -9240,15 +9252,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>251</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D54">
         <v>2850</v>
@@ -9266,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -9278,15 +9290,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55">
         <v>620</v>
@@ -9304,7 +9316,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -9316,15 +9328,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>252</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56">
         <v>2850</v>
@@ -9342,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -9354,15 +9366,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57">
         <v>2850</v>
@@ -9380,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -9392,15 +9404,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>267</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D58">
         <v>2710</v>
@@ -9418,7 +9430,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -9430,15 +9442,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D59">
         <v>2710</v>
@@ -9456,7 +9468,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -9468,15 +9480,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>265</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D60">
         <v>2710</v>
@@ -9494,7 +9506,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -9506,15 +9518,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>269</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D61">
         <v>2710</v>
@@ -9532,7 +9544,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -9544,15 +9556,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>282</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D62">
         <v>1420</v>
@@ -9570,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -9582,15 +9594,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>281</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D63">
         <v>1420</v>
@@ -9608,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -9620,15 +9632,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>268</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D64">
         <v>2710</v>
@@ -9646,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -9658,15 +9670,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D65">
         <v>1920</v>
@@ -9684,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -9696,15 +9708,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D66">
         <v>1990</v>
@@ -9722,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -9734,15 +9746,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>278</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67">
         <v>2110</v>
@@ -9760,7 +9772,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -9772,15 +9784,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>277</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D68">
         <v>2110</v>
@@ -9798,7 +9810,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -9810,15 +9822,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>276</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D69">
         <v>2110</v>
@@ -9836,7 +9848,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -9848,15 +9860,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>275</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D70">
         <v>2110</v>
@@ -9874,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -9886,15 +9898,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>274</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D71">
         <v>2110</v>
@@ -9912,7 +9924,7 @@
         <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -9924,15 +9936,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D72">
         <v>2110</v>
@@ -9950,7 +9962,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -9962,15 +9974,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>272</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D73">
         <v>2110</v>
@@ -9988,7 +10000,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -10000,15 +10012,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>271</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D74">
         <v>2710</v>
@@ -10026,7 +10038,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -10038,15 +10050,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D75">
         <v>2710</v>
@@ -10064,7 +10076,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -10076,15 +10088,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>284</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D76">
         <v>820</v>
@@ -10102,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -10114,15 +10126,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>283</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D77">
         <v>820</v>
@@ -10140,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10152,15 +10164,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D78">
         <v>2160</v>
@@ -10178,7 +10190,7 @@
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10190,15 +10202,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10216,7 +10228,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -10228,15 +10240,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D80">
         <v>220</v>
@@ -10254,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10266,15 +10278,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D81">
         <v>1450</v>
@@ -10292,7 +10304,7 @@
         <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -10304,15 +10316,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D82">
         <v>1450</v>
@@ -10330,7 +10342,7 @@
         <v>6</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -10342,15 +10354,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83">
         <v>1450</v>
@@ -10368,7 +10380,7 @@
         <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -10380,15 +10392,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84">
         <v>1450</v>
@@ -10406,7 +10418,7 @@
         <v>6</v>
       </c>
       <c r="I84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -10418,15 +10430,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85">
         <v>1450</v>
@@ -10444,7 +10456,7 @@
         <v>6</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -10456,15 +10468,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86">
         <v>1450</v>
@@ -10482,7 +10494,7 @@
         <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -10494,15 +10506,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>286</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87">
         <v>220</v>
@@ -10520,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -10538,14 +10550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10589,15 +10601,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D2">
         <v>1510</v>
@@ -10615,7 +10627,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -10627,15 +10639,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D3">
         <v>1915</v>
@@ -10653,7 +10665,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -10665,15 +10677,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>156</v>
       </c>
       <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
         <v>257</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
       </c>
       <c r="D4">
         <v>1905</v>
@@ -10691,7 +10703,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -10703,15 +10715,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D5">
         <v>1915</v>
@@ -10729,7 +10741,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -10741,15 +10753,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D6">
         <v>1905</v>
@@ -10767,7 +10779,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -10779,15 +10791,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D7">
         <v>1245</v>
@@ -10805,7 +10817,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -10817,15 +10829,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D8">
         <v>1195</v>
@@ -10843,7 +10855,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -10855,15 +10867,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D9">
         <v>1775</v>
@@ -10881,7 +10893,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -10893,15 +10905,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10">
         <v>1825</v>
@@ -10919,7 +10931,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -10931,15 +10943,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D11">
         <v>1105</v>
@@ -10957,7 +10969,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -10969,15 +10981,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D12">
         <v>1745</v>
@@ -10995,7 +11007,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -11007,15 +11019,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D13">
         <v>970</v>
@@ -11033,7 +11045,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -11045,15 +11057,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D14">
         <v>1671</v>
@@ -11071,7 +11083,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -11083,15 +11095,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D15">
         <v>520</v>
@@ -11109,7 +11121,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -11121,15 +11133,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D16">
         <v>1420</v>
@@ -11147,7 +11159,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -11159,15 +11171,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D17">
         <v>1545</v>
@@ -11185,7 +11197,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -11197,15 +11209,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18">
         <v>520</v>
@@ -11223,7 +11235,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -11235,15 +11247,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D19">
         <v>1893</v>
@@ -11261,7 +11273,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -11273,15 +11285,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D20">
         <v>595</v>
@@ -11299,7 +11311,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -11311,15 +11323,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D21">
         <v>445</v>
@@ -11337,7 +11349,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -11349,15 +11361,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D22">
         <v>1105</v>
@@ -11375,7 +11387,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -11387,15 +11399,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D23">
         <v>1870</v>
@@ -11413,7 +11425,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -11425,15 +11437,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D24">
         <v>1870</v>
@@ -11451,7 +11463,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -11463,15 +11475,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D25">
         <v>1870</v>
@@ -11489,7 +11501,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -11501,15 +11513,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D26">
         <v>2535</v>
@@ -11527,7 +11539,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -11539,15 +11551,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D27">
         <v>1905</v>
@@ -11565,7 +11577,7 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -11577,15 +11589,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D28">
         <v>1915</v>
@@ -11603,7 +11615,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -11615,15 +11627,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D29">
         <v>2105</v>
@@ -11641,7 +11653,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -11653,15 +11665,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D30">
         <v>1915</v>
@@ -11679,7 +11691,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -11691,15 +11703,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D31">
         <v>2245</v>
@@ -11717,7 +11729,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -11729,15 +11741,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D32">
         <v>2105</v>
@@ -11755,7 +11767,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -11767,15 +11779,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D33">
         <v>2245</v>
@@ -11793,7 +11805,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -11805,15 +11817,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D34">
         <v>2375</v>
@@ -11831,7 +11843,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -11843,15 +11855,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D35">
         <v>2375</v>
@@ -11869,7 +11881,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -11881,15 +11893,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D36">
         <v>2375</v>
@@ -11907,7 +11919,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -11919,15 +11931,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D37">
         <v>2375</v>
@@ -11945,7 +11957,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -11957,15 +11969,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D38">
         <v>1905</v>
@@ -11983,7 +11995,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -11995,15 +12007,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D39">
         <v>2175</v>
@@ -12021,7 +12033,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -12033,15 +12045,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D40">
         <v>575</v>
@@ -12059,7 +12071,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -12071,15 +12083,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D41">
         <v>220</v>
@@ -12097,7 +12109,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -12109,15 +12121,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D42">
         <v>270</v>
@@ -12135,7 +12147,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -12147,15 +12159,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D43">
         <v>245</v>
@@ -12173,7 +12185,7 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -12185,15 +12197,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D44">
         <v>1823</v>
@@ -12211,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -12223,15 +12235,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D45">
         <v>2160</v>
@@ -12249,7 +12261,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -12267,14 +12279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12318,15 +12330,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -12344,7 +12356,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -12356,15 +12368,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D3">
         <v>140</v>
@@ -12382,7 +12394,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -12394,15 +12406,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>105</v>
       </c>
       <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s">
         <v>302</v>
-      </c>
-      <c r="C4" t="s">
-        <v>305</v>
       </c>
       <c r="D4">
         <v>220</v>
@@ -12420,7 +12432,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4">
         <v>1</v>
